--- a/datasets/data dictionary.xlsx
+++ b/datasets/data dictionary.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Degrees\PhD EPI\RA positions\Hutch - Ortblad\Peer PrEP\manuscripts\main\Peer-PrEP-main-manuscript\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2325C98-1D42-4EE4-9A37-61303CF58297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36088D1E-C873-49C0-B66D-DE158564DBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{2D99384F-4065-4A2F-ADEE-21658BB194D8}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{2D99384F-4065-4A2F-ADEE-21658BB194D8}"/>
   </bookViews>
   <sheets>
     <sheet name="1. ds_pbl" sheetId="1" r:id="rId1"/>
-    <sheet name="2. ds_pfu" sheetId="2" r:id="rId2"/>
+    <sheet name="2. ds_pfu" sheetId="3" r:id="rId2"/>
+    <sheet name="3. ds_pfu_lcomp" sheetId="2" r:id="rId3"/>
+    <sheet name="4. ds_cfu " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="247">
   <si>
     <t>p1_ptid</t>
   </si>
@@ -361,6 +363,423 @@
   </si>
   <si>
     <t>PrEP retention/continuation</t>
+  </si>
+  <si>
+    <t>p2_s2_q2</t>
+  </si>
+  <si>
+    <t>p2_s5_q1_0</t>
+  </si>
+  <si>
+    <t>p2_s5_q1_1</t>
+  </si>
+  <si>
+    <t>p2_s5_q3</t>
+  </si>
+  <si>
+    <t>p2_s5_q5</t>
+  </si>
+  <si>
+    <t>p2_s5_q4</t>
+  </si>
+  <si>
+    <t>p2_s7_q1_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q2_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q3_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q4_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q5_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q6_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q8_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q13_m_bin</t>
+  </si>
+  <si>
+    <t>p2_s7_q14_m_bin</t>
+  </si>
+  <si>
+    <t>HIV incidence</t>
+  </si>
+  <si>
+    <t>Refilled PrEP since last visit</t>
+  </si>
+  <si>
+    <t>30 days - No. of days missing PrEP*</t>
+  </si>
+  <si>
+    <t>30 days - Ability to take PrEP"</t>
+  </si>
+  <si>
+    <t>30 days - Taking PrEP as supposed</t>
+  </si>
+  <si>
+    <t>Referring my peers to PrEP services and delivering HIV self-tests to support the referral</t>
+  </si>
+  <si>
+    <t>Hard to refer my peers to PrEP services and deliver HIV self-tests to support the referral</t>
+  </si>
+  <si>
+    <t>Able to carry-out all elements of the intervention successfully</t>
+  </si>
+  <si>
+    <t>Able to solve any problems that may arise while delivering this intervention</t>
+  </si>
+  <si>
+    <t>Don't understand why I should refer my peers to PrEP services and deliver them HIV self-tests</t>
+  </si>
+  <si>
+    <t>Referring my peers to PrEP services and delivering them HIV self-tests will likely interfere with my other priorities</t>
+  </si>
+  <si>
+    <t>Referring my peers to PrEP services and delivering them HIV self-tests will help them remain HIV-negative</t>
+  </si>
+  <si>
+    <t>Referring my peers to PrEP services and delivering them HIV self-tests to support this referral is possible to implement</t>
+  </si>
+  <si>
+    <t>It is doable to refer my peers to PrEP services and deliver them HIV self-tests to support this referral</t>
+  </si>
+  <si>
+    <t>Referred peer's outcomes by Index peer follow-up</t>
+  </si>
+  <si>
+    <t>c2_s0_arm</t>
+  </si>
+  <si>
+    <t>c2_ptid</t>
+  </si>
+  <si>
+    <t>c2_pp_ptid</t>
+  </si>
+  <si>
+    <t>c2_s1_q1</t>
+  </si>
+  <si>
+    <t>c2_s1_q5</t>
+  </si>
+  <si>
+    <t>c2_s2_q2</t>
+  </si>
+  <si>
+    <t>c2_s2_q6</t>
+  </si>
+  <si>
+    <t>c2_s6_q1_1</t>
+  </si>
+  <si>
+    <t>c2_s6_q1_1_rec</t>
+  </si>
+  <si>
+    <t>c2_s1_q2</t>
+  </si>
+  <si>
+    <t>c2_s1_q3</t>
+  </si>
+  <si>
+    <t>c2_s1_q4</t>
+  </si>
+  <si>
+    <t>c2_s1_q7_1</t>
+  </si>
+  <si>
+    <t>c2_s1_q7</t>
+  </si>
+  <si>
+    <t>c2_s1_q6</t>
+  </si>
+  <si>
+    <t>c2_s1_q8_dico</t>
+  </si>
+  <si>
+    <t>c2_s2_q18</t>
+  </si>
+  <si>
+    <t>c2_s2_q18a</t>
+  </si>
+  <si>
+    <t>c2_s2_q17</t>
+  </si>
+  <si>
+    <t>c2_s2_q8_1b</t>
+  </si>
+  <si>
+    <t>c2_s2_q6_1</t>
+  </si>
+  <si>
+    <t>c2_s2_q10</t>
+  </si>
+  <si>
+    <t>c2_s2_q11</t>
+  </si>
+  <si>
+    <t>c2_s2_q12</t>
+  </si>
+  <si>
+    <t>c2_s2_q13</t>
+  </si>
+  <si>
+    <t>c2_s2_q14</t>
+  </si>
+  <si>
+    <t>c2_s2_q15</t>
+  </si>
+  <si>
+    <t>c2_s2_q16</t>
+  </si>
+  <si>
+    <t>c2_s6_q1_1_1</t>
+  </si>
+  <si>
+    <t>c2_s6_q01e</t>
+  </si>
+  <si>
+    <t>c2_s2_q7</t>
+  </si>
+  <si>
+    <t>c2_s2_q8_1a_rec</t>
+  </si>
+  <si>
+    <t>c2_s2_q1_rec</t>
+  </si>
+  <si>
+    <t>c2_s6_q01a</t>
+  </si>
+  <si>
+    <t>c2_s6_q01</t>
+  </si>
+  <si>
+    <t>c2_s6_q01f</t>
+  </si>
+  <si>
+    <t>c2_s6_q01h</t>
+  </si>
+  <si>
+    <t>c2_s6_q01l</t>
+  </si>
+  <si>
+    <t>c2_s6_q01o</t>
+  </si>
+  <si>
+    <t>c2_s6_q01s</t>
+  </si>
+  <si>
+    <t>c2_s6_q01t</t>
+  </si>
+  <si>
+    <t>c2_s6_q01w</t>
+  </si>
+  <si>
+    <t>c2_s6_q2</t>
+  </si>
+  <si>
+    <t>prep_adh_score</t>
+  </si>
+  <si>
+    <t>c2_s6_q8</t>
+  </si>
+  <si>
+    <t>c2_s6_q9</t>
+  </si>
+  <si>
+    <t>c2_s6_q10</t>
+  </si>
+  <si>
+    <t>c2_s6_q01a_1</t>
+  </si>
+  <si>
+    <t>c2_s6_q01i</t>
+  </si>
+  <si>
+    <t>c2_s6_q01j</t>
+  </si>
+  <si>
+    <t>c2_s6_q01k</t>
+  </si>
+  <si>
+    <t>c2_s6_q01m</t>
+  </si>
+  <si>
+    <t>c2_s6_q01n</t>
+  </si>
+  <si>
+    <t>Referred peer's baseline covariates and outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client's ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peer Provider PTID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relationship status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knowledge of own HIV status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. of sexual partners*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prior PrEP use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Years in school*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Currently in school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age gap between client and last sexual partner*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enrolled in another HIV study</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alcohol consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monthly income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ilegal drug use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ever being pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. of living children</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age of first sex*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Known partner living with HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any condomless sex (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unprotected sex with partner of unknown/positive HIV status (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STI (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prior emergency contraception use (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emergency contraception twice (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEP use more than twice (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sex under influence of drugs (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sex exchange (past 6 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Currently using PrEP for HIV prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Has disclosed PrEP use to others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time since first PrEP use (months)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inconsisten condom use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New sexual partner (past 3 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. of sexual partners with known HIV status*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any HIV testing with primary partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Last HIV testing, past 3 month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Received materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consult and refer to PrEP by provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any HIV testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIV results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIVST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visited clinic for hiv services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Escorted to HIV services by provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PrEP initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PrEP retention/continuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using PrEP for prevention when referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PrEP adherence score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 days - No. of days missing PrEP*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 days - Ability to take PrEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 days - Taking PrEP as supposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Received all materials from providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any HIV testing with sexual partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partner's results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIVST kits received from Index peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Index peer assisted HIVST of referred peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Use of second HIVS</t>
   </si>
 </sst>
 </file>
@@ -433,11 +852,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,306 +1211,306 @@
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1101,11 +1520,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96B4817-768A-48E2-89BF-78CF29538454}">
+  <dimension ref="D2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C991C40-48E7-45F9-9364-46042357354E}">
   <dimension ref="D2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1118,159 +1710,649 @@
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4243234A-029B-4C31-B662-D48A87BB5512}">
+  <dimension ref="D2:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
